--- a/unityfiles/Assets/Resources/MapData/マップテンプレ.xlsx
+++ b/unityfiles/Assets/Resources/MapData/マップテンプレ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレ" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
   <si>
     <t>Height</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Mapcih(x,y)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>0=床 1=壁</t>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カベ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -68,6 +58,43 @@
   </si>
   <si>
     <t>Width</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オブジェクトの種類:0通行可床1:通行不可床2:通行可オブジェクト3:通行不可オブジェクト</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツウコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -988,15 +1015,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1004,18 +1031,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1148,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1164,10 +1188,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">

--- a/unityfiles/Assets/Resources/MapData/マップテンプレ.xlsx
+++ b/unityfiles/Assets/Resources/MapData/マップテンプレ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8355"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレ" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>Height</t>
     <phoneticPr fontId="18"/>
@@ -95,6 +95,14 @@
     <rPh sb="37" eb="39">
       <t>フカ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>x,y</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1016,7 +1024,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1144,7 +1152,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
